--- a/biology/Médecine/Prosper_Despine/Prosper_Despine.xlsx
+++ b/biology/Médecine/Prosper_Despine/Prosper_Despine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prosper Despine, né le 11 mars 1812 à Bonneville et mort le 14 janvier 1892 à Marseille[1], est un aliéniste et psychiatre, médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prosper Despine, né le 11 mars 1812 à Bonneville et mort le 14 janvier 1892 à Marseille, est un aliéniste et psychiatre, médecin français.
 </t>
         </is>
       </c>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Prosper Pierre Constant Despine est né le 11 mars 1812[2], à Bonneville[3]. Il est le fils de Louis Despine, négociant à Marseille, et Marianne de Passier, et il a quatre sœurs[2]. Il est issu d'une famille de notables savoyards, originaire des Bauges, les Despine[2].
-Il est notamment le neveu de Charles-Humbert-Antoine Despine (1777-1852), médecin et directeur des thermes d'Aix-les-Bains[2].
-Carrière
-Il entre au lycée à Grenoble où il obtient le baccalauréat ès lettres, en 1830[3]. Il poursuit ses études à Marseille[3]. Il soutient le 18 novembre 1837 une thèse en médecine à Paris, où il traite de « Propositions de médecine et de chirurgie »[3].
-Il s'installe à Marseille[2].
-Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 9 décembre 1880[4].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prosper Pierre Constant Despine est né le 11 mars 1812, à Bonneville. Il est le fils de Louis Despine, négociant à Marseille, et Marianne de Passier, et il a quatre sœurs. Il est issu d'une famille de notables savoyards, originaire des Bauges, les Despine.
+Il est notamment le neveu de Charles-Humbert-Antoine Despine (1777-1852), médecin et directeur des thermes d'Aix-les-Bains.
 </t>
         </is>
       </c>
@@ -545,10 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre au lycée à Grenoble où il obtient le baccalauréat ès lettres, en 1830. Il poursuit ses études à Marseille. Il soutient le 18 novembre 1837 une thèse en médecine à Paris, où il traite de « Propositions de médecine et de chirurgie ».
+Il s'installe à Marseille.
+Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 9 décembre 1880.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prosper_Despine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prosper_Despine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Psychologie naturelle. Étude sur les facultés intellectuelles et morales dans leur état normal et dans leurs manifestations anormales chez les aliénés et chez les criminels, F.Savy, 1868.
 De La Contagion Morale: Faits Démontrant Son Existence (1870)
